--- a/loading_statistics.xlsx
+++ b/loading_statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/MADS/IST737/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/Documentos/proyectos/04_ingestas_eurostat/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="37" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFA36BBF-12DB-4B2A-BB80-8226658F1856}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="country" sheetId="1" r:id="rId1"/>
@@ -251,10 +251,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -271,10 +270,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,7 +538,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,114 +552,114 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -693,10 +688,10 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -709,18 +704,18 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
